--- a/files/Project Plan.xlsx
+++ b/files/Project Plan.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faperezar\Desktop\Cursos\Udacity - Devops using Microsoft Azure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faperezar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B86C355-DF96-43E5-A326-8F3C3FF01D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EACF89A-59BD-4B3F-863B-63D622F234DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0058E442-922B-4BFF-9518-A7B6BC467599}"/>
   </bookViews>
   <sheets>
-    <sheet name="Udacity CICD Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Udacity CICD Plan Semanal" sheetId="1" r:id="rId1"/>
+    <sheet name="Udacity CICD Plan Trimestral" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Clone repository</t>
   </si>
@@ -104,6 +105,31 @@
   <si>
     <t>Write Readme
 First delivery Project</t>
+  </si>
+  <si>
+    <t>Tiempo HH</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Trim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Udacity Devops on Microsoft Azure course application</t>
+  </si>
+  <si>
+    <t>Analysis of application and evaluation of candidates</t>
+  </si>
+  <si>
+    <t>Welcome, induction and planning.</t>
+  </si>
+  <si>
+    <t>Beginning, development and completion of the course.</t>
+  </si>
+  <si>
+    <t>Find next course to deepen the knowledge of Devops.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -184,6 +210,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,294 +537,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C32D8-DBD3-43E4-BC3A-4DB11D276495}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.81640625" customWidth="1"/>
     <col min="2" max="2" width="64.90625" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44491</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44492</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44493</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44494</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44495</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44496</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44497</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44498</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44499</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44500</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44501</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44502</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>44491</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>44492</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>44493</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>44494</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>44495</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>44496</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>44497</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>44498</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>44499</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>44500</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>44501</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>44502</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>44503</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>44504</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>44505</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>44506</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>44507</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>44508</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>44509</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6EA59B-B76D-4C18-9755-BC1C0A4D1757}">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>